--- a/Results/sum_table.xlsx
+++ b/Results/sum_table.xlsx
@@ -1,26 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kemushi\Macaca-population-trend\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
     <sheet name="Single" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>dataN_2015</t>
+  </si>
+  <si>
+    <t>dataN_2016</t>
+  </si>
+  <si>
+    <t>dataN_2017</t>
+  </si>
+  <si>
+    <t>dataN_2018</t>
+  </si>
+  <si>
+    <t>SiteN_2015</t>
+  </si>
+  <si>
+    <t>SiteN_2016</t>
+  </si>
+  <si>
+    <t>SiteN_2017</t>
+  </si>
+  <si>
+    <t>SiteN_2018</t>
+  </si>
+  <si>
+    <t>PointN_2015</t>
+  </si>
+  <si>
+    <t>PointN_2016</t>
+  </si>
+  <si>
+    <t>PointN_2017</t>
+  </si>
+  <si>
+    <t>PointN_2018</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -28,8 +119,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -60,15 +158,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,85 +459,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2015</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2016</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2017</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2015</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2017</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2018</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2015</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2016</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2017</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>南投縣</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -468,11 +550,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>台中市</t>
-        </is>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -511,11 +591,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>台北市</t>
-        </is>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -536,11 +614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>台南市</t>
-        </is>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -570,11 +646,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>台東縣</t>
-        </is>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -613,11 +687,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>嘉義縣</t>
-        </is>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -656,11 +728,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宜蘭縣</t>
-        </is>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -690,11 +760,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>屏東縣</t>
-        </is>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -733,11 +801,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新北市</t>
-        </is>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -767,11 +833,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>花蓮縣</t>
-        </is>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -810,11 +874,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>苗栗縣</t>
-        </is>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -844,11 +906,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>雲林縣</t>
-        </is>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -887,11 +947,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>高雄市</t>
-        </is>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -930,91 +988,117 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:M15" si="0">SUM(C2:C14)</f>
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2015</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2016</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2017</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dataN_2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2015</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2017</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SiteN_2018</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2015</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2016</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2017</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PointN_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>南投縣</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1053,11 +1137,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>台中市</t>
-        </is>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1096,11 +1178,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>台北市</t>
-        </is>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1112,11 +1192,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>台東縣</t>
-        </is>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1137,11 +1215,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>嘉義市</t>
-        </is>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1153,11 +1229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>嘉義縣</t>
-        </is>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1178,11 +1252,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宜蘭縣</t>
-        </is>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1194,11 +1266,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>屏東縣</t>
-        </is>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1228,11 +1298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新北市</t>
-        </is>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1244,11 +1312,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>花蓮縣</t>
-        </is>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1287,11 +1353,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>苗栗縣</t>
-        </is>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1303,11 +1367,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>雲林縣</t>
-        </is>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1337,11 +1399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>高雄市</t>
-        </is>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -1380,7 +1440,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:M15" si="0">SUM(C2:C14)</f>
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/sum_table.xlsx
+++ b/Results/sum_table.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
     <sheet name="Single" sheetId="2" r:id="rId2"/>
+    <sheet name="TypeName.high" sheetId="3" r:id="rId3"/>
+    <sheet name="group.TypeName.high" sheetId="4" r:id="rId4"/>
+    <sheet name="TypeName" sheetId="5" r:id="rId5"/>
+    <sheet name="group.TypeName" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1641,4 +1645,2173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>混淆林</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>竹林</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>純針葉林</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>純闊葉林</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>233</v>
+      </c>
+      <c r="E2">
+        <v>286</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>127</v>
+      </c>
+      <c r="G3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>138</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>227</v>
+      </c>
+      <c r="E5">
+        <v>293</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>144</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>285</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>138</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>209</v>
+      </c>
+      <c r="E11">
+        <v>298</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>138</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>310</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>138</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>224</v>
+      </c>
+      <c r="E17">
+        <v>286</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>124</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>235</v>
+      </c>
+      <c r="E20">
+        <v>327</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>138</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>236</v>
+      </c>
+      <c r="E23">
+        <v>318</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>108</v>
+      </c>
+      <c r="G24">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>124</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>192</v>
+      </c>
+      <c r="E26">
+        <v>261</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>108</v>
+      </c>
+      <c r="G27">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>144</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>257</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>82</v>
+      </c>
+      <c r="G30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>138</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>混淆林</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>竹林</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>純針葉林</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>純闊葉林</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>混淆林</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>竹林</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>純針葉林</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>純闊葉林</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>331</v>
+      </c>
+      <c r="D2">
+        <v>331</v>
+      </c>
+      <c r="E2">
+        <v>299</v>
+      </c>
+      <c r="F2">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>325</v>
+      </c>
+      <c r="D3">
+        <v>338</v>
+      </c>
+      <c r="E3">
+        <v>302</v>
+      </c>
+      <c r="F3">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>286</v>
+      </c>
+      <c r="D4">
+        <v>327</v>
+      </c>
+      <c r="E4">
+        <v>275</v>
+      </c>
+      <c r="F4">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>282</v>
+      </c>
+      <c r="D5">
+        <v>340</v>
+      </c>
+      <c r="E5">
+        <v>275</v>
+      </c>
+      <c r="F5">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>292</v>
+      </c>
+      <c r="D6">
+        <v>344</v>
+      </c>
+      <c r="E6">
+        <v>258</v>
+      </c>
+      <c r="F6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>286</v>
+      </c>
+      <c r="D7">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>244</v>
+      </c>
+      <c r="F7">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>319</v>
+      </c>
+      <c r="D8">
+        <v>372</v>
+      </c>
+      <c r="E8">
+        <v>285</v>
+      </c>
+      <c r="F8">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>317</v>
+      </c>
+      <c r="D9">
+        <v>356</v>
+      </c>
+      <c r="E9">
+        <v>269</v>
+      </c>
+      <c r="F9">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>283</v>
+      </c>
+      <c r="D10">
+        <v>297</v>
+      </c>
+      <c r="E10">
+        <v>285</v>
+      </c>
+      <c r="F10">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>291</v>
+      </c>
+      <c r="E11">
+        <v>253</v>
+      </c>
+      <c r="F11">
+        <v>1848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>混淆林</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>竹林</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>純針葉林</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>純闊葉林</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/sum_table.xlsx
+++ b/Results/sum_table.xlsx
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>1887</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3">
@@ -1734,16 +1734,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>324</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1788,16 +1788,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>1836</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6">
@@ -1815,16 +1815,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>324</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -1842,16 +1842,16 @@
         </is>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>1783</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9">
@@ -1896,16 +1896,16 @@
         </is>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>325</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -1923,16 +1923,16 @@
         </is>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="E11">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>1737</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12">
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>325</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2031,16 +2031,16 @@
         </is>
       </c>
       <c r="D14">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>1694</v>
+        <v>904</v>
       </c>
     </row>
     <row r="15">
@@ -2058,16 +2058,16 @@
         </is>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>302</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2112,16 +2112,16 @@
         </is>
       </c>
       <c r="D17">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>1650</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G18">
-        <v>302</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2166,16 +2166,16 @@
         </is>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2193,16 +2193,16 @@
         </is>
       </c>
       <c r="D20">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="E20">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>1706</v>
+        <v>957</v>
       </c>
     </row>
     <row r="21">
@@ -2220,16 +2220,16 @@
         </is>
       </c>
       <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21">
         <v>56</v>
       </c>
-      <c r="E21">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>110</v>
-      </c>
       <c r="G21">
-        <v>390</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -2247,16 +2247,16 @@
         </is>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2274,16 +2274,16 @@
         </is>
       </c>
       <c r="D23">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="E23">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>1693</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>328</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2355,16 +2355,16 @@
         </is>
       </c>
       <c r="D26">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="E26">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="F26">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G26">
-        <v>1531</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27">
@@ -2382,16 +2382,16 @@
         </is>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G27">
-        <v>337</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -2409,16 +2409,16 @@
         </is>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>75</v>
+      </c>
+      <c r="G28">
         <v>8</v>
-      </c>
-      <c r="F28">
-        <v>144</v>
-      </c>
-      <c r="G28">
-        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="D29">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="E29">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="F29">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>1523</v>
+        <v>853</v>
       </c>
     </row>
     <row r="30">
@@ -2463,16 +2463,16 @@
         </is>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G30">
-        <v>313</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
@@ -2490,16 +2490,16 @@
         </is>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2945,16 +2945,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2975,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         </is>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3242,16 +3242,16 @@
         </is>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="F2">
-        <v>2223</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3">
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="E3">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>2172</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4">
@@ -3380,16 +3380,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c r="D4">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="E4">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="F4">
-        <v>2120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5">
@@ -3402,16 +3402,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="E5">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="F5">
-        <v>2074</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="D6">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="E6">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="F6">
-        <v>2008</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7">
@@ -3446,16 +3446,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="E7">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>1962</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8">
@@ -3468,16 +3468,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>319</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="F8">
-        <v>2108</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="9">
@@ -3490,16 +3490,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="D9">
-        <v>356</v>
+        <v>196</v>
       </c>
       <c r="E9">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="F9">
-        <v>2031</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="10">
@@ -3512,16 +3512,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="F10">
-        <v>1882</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="11">
@@ -3534,16 +3534,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="D11">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>1848</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -3601,16 +3601,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -3623,16 +3623,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -3645,16 +3645,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -3667,16 +3667,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -3689,16 +3689,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -3733,16 +3733,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
